--- a/biology/Botanique/Liatris_à_épi/Liatris_à_épi.xlsx
+++ b/biology/Botanique/Liatris_à_épi/Liatris_à_épi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liatris_%C3%A0_%C3%A9pi</t>
+          <t>Liatris_à_épi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liatris à épi, Plume du Kansas
-Le Liatris à épi ou la Plume du Kansas (Liatris spicata) est une espèce de plantes à fleurs de la famille des Astéracées. Elle est originaire de l'est de l'Amérique du Nord[2], où elle pousse dans les prairies humides et les prés à carex.
+Le Liatris à épi ou la Plume du Kansas (Liatris spicata) est une espèce de plantes à fleurs de la famille des Astéracées. Elle est originaire de l'est de l'Amérique du Nord, où elle pousse dans les prairies humides et les prés à carex.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liatris_%C3%A0_%C3%A9pi</t>
+          <t>Liatris_à_épi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace qui mesure de 50 cm à 1,20 m de hauteur. Les feuilles sont fines et allongées. Les fleurs en épis présentent la particularité de s’épanouir à partir du sommet.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liatris_%C3%A0_%C3%A9pi</t>
+          <t>Liatris_à_épi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Liatris à épi s'épanouit en plein soleil et redoute l'humidité stagnante. Pour se reproduire, la plante procède par semis et par division de ses touffes pour les cultivars. 
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liatris_%C3%A0_%C3%A9pi</t>
+          <t>Liatris_à_épi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>De nombreuses dénominations ont été utilisées pour L. spicata :
 Kuhnia spicata (L.) Baillon
